--- a/biology/Botanique/Polyosmaceae/Polyosmaceae.xlsx
+++ b/biology/Botanique/Polyosmaceae/Polyosmaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Polyosmacées regroupe des plantes dicotylédones ; elle comprend 60 espèces du genre Polyosma (en).
 Ce sont des arbres à feuilles opposées que l'on rencontre de la Chine à l'Australie et à la Nouvelle-Calédonie.
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre Polyosma, dérivé du grec πολυ / poly, plusieurs, et οσμ / osm, « odeur ; sentir ; flairer », sans doute en raison des fleurs « odoratissimis » de la plante[1], c'est-à-dire « très odorantes »[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre Polyosma, dérivé du grec πολυ / poly, plusieurs, et οσμ / osm, « odeur ; sentir ; flairer », sans doute en raison des fleurs « odoratissimis » de la plante, c'est-à-dire « très odorantes ».
 </t>
         </is>
       </c>
@@ -544,12 +558,14 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En classification classique de Cronquist (1981)[3], ce genre faisait partie de la famille des Grossulariacées. 
-Pour la classification phylogénétique APG (1998)[4] et la classification phylogénétique APG II (2003)[5], la divergence de cette famille se situe au niveau des Campanulidées.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En classification classique de Cronquist (1981), ce genre faisait partie de la famille des Grossulariacées. 
+Pour la classification phylogénétique APG (1998) et la classification phylogénétique APG II (2003), la divergence de cette famille se situe au niveau des Campanulidées.
 Angiosperm Phylogeny Website (18 août 2009) ne reconnait pas Polyosmaceae et inclut ces espèces dans la famille des Escalloniaceae.
-En classification phylogénétique APG III (2009)[6], cette famille est invalide et ses genres sont incorporés dans la famille Escalloniaceae.
+En classification phylogénétique APG III (2009), cette famille est invalide et ses genres sont incorporés dans la famille Escalloniaceae.
 </t>
         </is>
       </c>
